--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,40 +540,40 @@
         <v>0.137318</v>
       </c>
       <c r="I2">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J2">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.176023999999999</v>
+        <v>14.593519</v>
       </c>
       <c r="N2">
-        <v>15.528072</v>
+        <v>43.780557</v>
       </c>
       <c r="O2">
-        <v>0.1268536161805122</v>
+        <v>0.2780626807805203</v>
       </c>
       <c r="P2">
-        <v>0.1268536161805122</v>
+        <v>0.2780626807805203</v>
       </c>
       <c r="Q2">
-        <v>0.2369204212106666</v>
+        <v>0.6679842806806666</v>
       </c>
       <c r="R2">
-        <v>2.132283790896</v>
+        <v>6.011858526126</v>
       </c>
       <c r="S2">
-        <v>0.07182795577441126</v>
+        <v>0.1939247684027074</v>
       </c>
       <c r="T2">
-        <v>0.07182795577441126</v>
+        <v>0.1939247684027075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,10 +602,10 @@
         <v>0.137318</v>
       </c>
       <c r="I3">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J3">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>57.194759</v>
       </c>
       <c r="O3">
-        <v>0.4672416514891801</v>
+        <v>0.3632600657441564</v>
       </c>
       <c r="P3">
-        <v>0.46724165148918</v>
+        <v>0.3632600657441565</v>
       </c>
       <c r="Q3">
         <v>0.872652212929111</v>
@@ -632,10 +632,10 @@
         <v>7.853869916361999</v>
       </c>
       <c r="S3">
-        <v>0.2645648873846096</v>
+        <v>0.2533426057810015</v>
       </c>
       <c r="T3">
-        <v>0.2645648873846096</v>
+        <v>0.2533426057810015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.137318</v>
       </c>
       <c r="I4">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J4">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.56218166666667</v>
+        <v>18.82440066666667</v>
       </c>
       <c r="N4">
-        <v>49.686545</v>
+        <v>56.473202</v>
       </c>
       <c r="O4">
-        <v>0.4059047323303078</v>
+        <v>0.3586772534753233</v>
       </c>
       <c r="P4">
-        <v>0.4059047323303078</v>
+        <v>0.3586772534753233</v>
       </c>
       <c r="Q4">
-        <v>0.7580952207011111</v>
+        <v>0.861643016915111</v>
       </c>
       <c r="R4">
-        <v>6.82285698631</v>
+        <v>7.754787152236</v>
       </c>
       <c r="S4">
-        <v>0.2298342612555696</v>
+        <v>0.250146488972475</v>
       </c>
       <c r="T4">
-        <v>0.2298342612555696</v>
+        <v>0.250146488972475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,40 +726,40 @@
         <v>0.059578</v>
       </c>
       <c r="I5">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J5">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.176023999999999</v>
+        <v>14.593519</v>
       </c>
       <c r="N5">
-        <v>15.528072</v>
+        <v>43.780557</v>
       </c>
       <c r="O5">
-        <v>0.1268536161805122</v>
+        <v>0.2780626807805203</v>
       </c>
       <c r="P5">
-        <v>0.1268536161805122</v>
+        <v>0.2780626807805203</v>
       </c>
       <c r="Q5">
-        <v>0.1027923859573333</v>
+        <v>0.2898175583273334</v>
       </c>
       <c r="R5">
-        <v>0.9251314736159999</v>
+        <v>2.608358024946</v>
       </c>
       <c r="S5">
-        <v>0.0311639111342131</v>
+        <v>0.08413791237781286</v>
       </c>
       <c r="T5">
-        <v>0.03116391113421309</v>
+        <v>0.08413791237781286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.059578</v>
       </c>
       <c r="I6">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J6">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.194759</v>
       </c>
       <c r="O6">
-        <v>0.4672416514891801</v>
+        <v>0.3632600657441564</v>
       </c>
       <c r="P6">
-        <v>0.46724165148918</v>
+        <v>0.3632600657441565</v>
       </c>
       <c r="Q6">
         <v>0.3786165946335555</v>
@@ -818,10 +818,10 @@
         <v>3.407549351702</v>
       </c>
       <c r="S6">
-        <v>0.1147864581526113</v>
+        <v>0.1099174599631549</v>
       </c>
       <c r="T6">
-        <v>0.1147864581526113</v>
+        <v>0.1099174599631549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,10 +850,10 @@
         <v>0.059578</v>
       </c>
       <c r="I7">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J7">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.56218166666667</v>
+        <v>18.82440066666667</v>
       </c>
       <c r="N7">
-        <v>49.686545</v>
+        <v>56.473202</v>
       </c>
       <c r="O7">
-        <v>0.4059047323303078</v>
+        <v>0.3586772534753233</v>
       </c>
       <c r="P7">
-        <v>0.4059047323303078</v>
+        <v>0.3586772534753233</v>
       </c>
       <c r="Q7">
-        <v>0.3289138864455556</v>
+        <v>0.3738400476395555</v>
       </c>
       <c r="R7">
-        <v>2.96022497801</v>
+        <v>3.364560428756</v>
       </c>
       <c r="S7">
-        <v>0.09971792202831622</v>
+        <v>0.1085307645028483</v>
       </c>
       <c r="T7">
-        <v>0.09971792202831621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.015206</v>
-      </c>
-      <c r="H8">
-        <v>0.045618</v>
-      </c>
-      <c r="I8">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J8">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>5.176023999999999</v>
-      </c>
-      <c r="N8">
-        <v>15.528072</v>
-      </c>
-      <c r="O8">
-        <v>0.1268536161805122</v>
-      </c>
-      <c r="P8">
-        <v>0.1268536161805122</v>
-      </c>
-      <c r="Q8">
-        <v>0.07870662094399998</v>
-      </c>
-      <c r="R8">
-        <v>0.7083595884959999</v>
-      </c>
-      <c r="S8">
-        <v>0.02386174927188783</v>
-      </c>
-      <c r="T8">
-        <v>0.02386174927188783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.015206</v>
-      </c>
-      <c r="H9">
-        <v>0.045618</v>
-      </c>
-      <c r="I9">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J9">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>19.06491966666666</v>
-      </c>
-      <c r="N9">
-        <v>57.194759</v>
-      </c>
-      <c r="O9">
-        <v>0.4672416514891801</v>
-      </c>
-      <c r="P9">
-        <v>0.46724165148918</v>
-      </c>
-      <c r="Q9">
-        <v>0.2899011684513333</v>
-      </c>
-      <c r="R9">
-        <v>2.609110516062</v>
-      </c>
-      <c r="S9">
-        <v>0.08789030595195912</v>
-      </c>
-      <c r="T9">
-        <v>0.08789030595195912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.015206</v>
-      </c>
-      <c r="H10">
-        <v>0.045618</v>
-      </c>
-      <c r="I10">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J10">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.56218166666667</v>
-      </c>
-      <c r="N10">
-        <v>49.686545</v>
-      </c>
-      <c r="O10">
-        <v>0.4059047323303078</v>
-      </c>
-      <c r="P10">
-        <v>0.4059047323303078</v>
-      </c>
-      <c r="Q10">
-        <v>0.2518445344233333</v>
-      </c>
-      <c r="R10">
-        <v>2.26660080981</v>
-      </c>
-      <c r="S10">
-        <v>0.07635254904642198</v>
-      </c>
-      <c r="T10">
-        <v>0.07635254904642198</v>
+        <v>0.1085307645028483</v>
       </c>
     </row>
   </sheetData>
